--- a/PROGRAMACIONES DE CIRUGIA DIARIA/4 ABRIL.xlsx
+++ b/PROGRAMACIONES DE CIRUGIA DIARIA/4 ABRIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="01 ABRIL" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="359">
   <si>
     <t xml:space="preserve">REGISTRO DE PROGRAMACION  DE CIRUGIAS </t>
   </si>
@@ -1127,6 +1127,45 @@
   </si>
   <si>
     <t xml:space="preserve">CLAVOS KISCHNER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 DE ABRIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30AM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. REYES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA PHYLUS + PLACA TIPO LISS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. ORELLANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCKP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMA SAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADIO DISTAL ARIX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPO PELVIS+ TORNILLERA 3.5 ACERO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASA PARA LAS 13:00 </t>
   </si>
 </sst>
 </file>
@@ -6896,10 +6935,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:J10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
@@ -7080,7 +7119,7 @@
       </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="24" customHeight="1">
+    <row r="10" spans="1:11" ht="31" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -7106,91 +7145,135 @@
       <c r="I10" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21.5" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="5">
+      <c r="B11" s="10">
         <v>4</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
+      <c r="C11" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="24" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="5">
+      <c r="B12" s="10">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" ht="23.5" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="10">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="10">
         <v>5</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
+      <c r="C14" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="19" spans="4:9" ht="17.5">
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="21" spans="4:9">
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+    <row r="18" spans="4:9" ht="17.5">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="20" spans="4:9">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7211,7 +7294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/PROGRAMACIONES DE CIRUGIA DIARIA/4 ABRIL.xlsx
+++ b/PROGRAMACIONES DE CIRUGIA DIARIA/4 ABRIL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PROGRAMACIONES DE CIRUGIA DIARIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA13B19A-E48F-4795-9EEB-EEB497269720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01 ABRIL" sheetId="1" r:id="rId1"/>
@@ -43,17 +44,28 @@
     <sheet name="29 ABRIL" sheetId="29" r:id="rId29"/>
     <sheet name="30 ABRIL" sheetId="30" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="361">
   <si>
     <t xml:space="preserve">REGISTRO DE PROGRAMACION  DE CIRUGIAS </t>
   </si>
@@ -1165,14 +1177,20 @@
     <t xml:space="preserve">EQUIPO PELVIS+ TORNILLERA 3.5 ACERO </t>
   </si>
   <si>
-    <t xml:space="preserve">PASA PARA LAS 13:00 </t>
+    <t xml:space="preserve">DR. GARCIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLINICA SANTA MARTHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAVO MACIZO DE TIBIA + BASICO 4.5MM </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1497,7 +1515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1612,18 +1630,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1689,6 +1695,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3763,55 +3784,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.4140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3819,48 +3840,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -3892,7 +3913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="43.5" customHeight="1">
+    <row r="8" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -3922,7 +3943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.5" customHeight="1">
+    <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -3952,7 +3973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24" customHeight="1">
+    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -3982,7 +4003,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -4012,7 +4033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -4042,14 +4063,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.5">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="15"/>
@@ -4072,55 +4093,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4128,48 +4149,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -4201,7 +4222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21.75" customHeight="1">
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -4231,7 +4252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1">
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -4261,7 +4282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1">
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -4291,7 +4312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21.75" customHeight="1">
+    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -4321,7 +4342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="10">
         <v>5</v>
@@ -4351,7 +4372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="10">
         <v>6</v>
@@ -4381,7 +4402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.5" customHeight="1">
+    <row r="14" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -4411,7 +4432,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1">
+    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5">
         <v>8</v>
@@ -4441,14 +4462,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -4471,55 +4492,55 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4527,48 +4548,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -4600,7 +4621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1">
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -4633,7 +4654,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="26.5" customHeight="1">
+    <row r="9" spans="1:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -4666,7 +4687,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.15" customHeight="1">
+    <row r="10" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -4699,7 +4720,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -4732,7 +4753,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -4765,7 +4786,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -4798,7 +4819,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -4829,7 +4850,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -4862,14 +4883,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -4892,55 +4913,55 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4948,48 +4969,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5021,7 +5042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="46.5">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -5054,7 +5075,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="37.5" customHeight="1">
+    <row r="9" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5087,7 +5108,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -5120,7 +5141,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -5153,7 +5174,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -5186,14 +5207,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.5">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="15"/>
@@ -5216,55 +5237,55 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5272,48 +5293,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5345,7 +5366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -5375,7 +5396,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5405,7 +5426,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -5435,7 +5456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="33">
         <v>4</v>
@@ -5465,7 +5486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -5479,7 +5500,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -5493,7 +5514,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -5507,7 +5528,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -5521,14 +5542,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -5551,55 +5572,55 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5607,48 +5628,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5680,7 +5701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -5710,7 +5731,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.5" customHeight="1">
+    <row r="9" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5740,7 +5761,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -5770,14 +5791,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.5">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
       <c r="F16" s="15"/>
@@ -5800,55 +5821,55 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5856,48 +5877,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5929,7 +5950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="37.5" customHeight="1">
+    <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -5962,7 +5983,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5995,7 +6016,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.5" customHeight="1">
+    <row r="10" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -6028,7 +6049,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>3</v>
@@ -6061,7 +6082,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>4</v>
@@ -6094,7 +6115,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>5</v>
@@ -6127,7 +6148,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>6</v>
@@ -6157,7 +6178,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>6</v>
       </c>
@@ -6189,14 +6210,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="17.5">
+    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>
@@ -6219,55 +6240,55 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="62.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="62.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6275,48 +6296,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -6348,7 +6369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -6381,7 +6402,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -6414,7 +6435,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -6447,7 +6468,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -6477,7 +6498,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -6510,7 +6531,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31">
+    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -6540,7 +6561,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -6554,7 +6575,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -6568,14 +6589,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -6598,55 +6619,55 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6654,48 +6675,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -6727,7 +6748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -6757,37 +6778,37 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31" customHeight="1">
+    <row r="9" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="40">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="7" t="s">
         <v>326</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="9" t="s">
         <v>240</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="37.5" customHeight="1">
+    <row r="10" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="10">
         <v>3</v>
@@ -6817,7 +6838,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="33.5" customHeight="1">
+    <row r="11" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -6847,7 +6868,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -6861,7 +6882,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -6875,7 +6896,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -6889,7 +6910,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -6903,14 +6924,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -6934,55 +6955,55 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6990,48 +7011,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -7063,7 +7084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -7089,9 +7110,11 @@
       <c r="I8" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" ht="22" customHeight="1">
+      <c r="J8" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -7117,9 +7140,11 @@
       <c r="I9" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" ht="31" customHeight="1">
+      <c r="J9" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -7131,7 +7156,7 @@
         <v>327</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>343</v>
@@ -7146,10 +7171,10 @@
         <v>244</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="21.5" customHeight="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -7175,9 +7200,11 @@
       <c r="I11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" ht="24" customHeight="1">
+      <c r="J11" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="10">
         <v>6</v>
@@ -7203,9 +7230,11 @@
       <c r="I12" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" ht="23.5" customHeight="1">
+      <c r="J12" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="10">
         <v>7</v>
@@ -7231,9 +7260,11 @@
       <c r="I13" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" ht="24" customHeight="1">
+      <c r="J13" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>5</v>
@@ -7259,16 +7290,18 @@
       <c r="I14" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="18" spans="4:9" ht="17.5">
+      <c r="J14" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>
@@ -7291,55 +7324,55 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7347,48 +7380,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -7420,7 +7453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="10">
         <v>1</v>
@@ -7431,32 +7464,52 @@
       <c r="D8" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="F8" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>300</v>
+      </c>
       <c r="H8" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="5">
+      <c r="B9" s="62">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
+      <c r="C9" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>240</v>
+      </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -7470,7 +7523,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -7484,7 +7537,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -7498,7 +7551,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -7512,7 +7565,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -7526,7 +7579,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -7540,14 +7593,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -7570,55 +7623,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="B9" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.4140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7626,48 +7679,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -7699,7 +7752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -7729,7 +7782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -7757,7 +7810,7 @@
       </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="10">
         <v>3</v>
@@ -7787,7 +7840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="39" customHeight="1">
+    <row r="11" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -7817,7 +7870,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1">
+    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -7847,7 +7900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -7877,7 +7930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.75" customHeight="1">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>5</v>
@@ -7905,7 +7958,7 @@
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="24.75" customHeight="1">
+    <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>6</v>
@@ -7933,7 +7986,7 @@
       </c>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5">
         <v>7</v>
@@ -7947,7 +8000,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="10">
         <v>8</v>
@@ -7961,14 +8014,14 @@
       <c r="I17" s="14"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="21" spans="1:10" ht="17.5">
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
       <c r="F23" s="15"/>
@@ -7991,55 +8044,55 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8047,48 +8100,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8120,7 +8173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -8134,7 +8187,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -8148,7 +8201,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -8162,7 +8215,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8176,7 +8229,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -8190,7 +8243,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -8204,7 +8257,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -8218,7 +8271,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -8232,14 +8285,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -8262,55 +8315,55 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8318,48 +8371,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8391,7 +8444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -8405,7 +8458,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -8419,7 +8472,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -8433,7 +8486,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8447,7 +8500,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -8461,7 +8514,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -8475,7 +8528,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -8489,7 +8542,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -8503,14 +8556,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -8533,55 +8586,55 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8589,48 +8642,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8662,7 +8715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -8676,7 +8729,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -8690,7 +8743,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -8704,7 +8757,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8718,7 +8771,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -8732,7 +8785,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -8746,7 +8799,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -8760,7 +8813,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -8774,14 +8827,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -8804,55 +8857,55 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8860,48 +8913,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8933,7 +8986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -8947,7 +9000,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -8961,7 +9014,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -8975,7 +9028,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8989,7 +9042,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9003,7 +9056,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9017,7 +9070,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9031,7 +9084,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9045,14 +9098,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9075,55 +9128,55 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9131,48 +9184,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9204,7 +9257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9218,7 +9271,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9232,7 +9285,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9246,7 +9299,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9260,7 +9313,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9274,7 +9327,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9288,7 +9341,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9302,7 +9355,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9316,14 +9369,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9346,55 +9399,55 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9402,48 +9455,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9475,7 +9528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9489,7 +9542,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9503,7 +9556,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9517,7 +9570,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9531,7 +9584,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9545,7 +9598,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9559,7 +9612,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9573,7 +9626,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9587,14 +9640,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9617,55 +9670,55 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9673,48 +9726,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9746,7 +9799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9760,7 +9813,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9774,7 +9827,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9788,7 +9841,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9802,7 +9855,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9816,7 +9869,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9830,7 +9883,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9844,7 +9897,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9858,14 +9911,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9888,55 +9941,55 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9944,48 +9997,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10017,7 +10070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10031,7 +10084,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10045,7 +10098,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10059,7 +10112,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10073,7 +10126,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -10087,7 +10140,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -10101,7 +10154,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -10115,7 +10168,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -10129,14 +10182,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -10159,55 +10212,55 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10215,48 +10268,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10288,7 +10341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10302,7 +10355,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10316,7 +10369,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10330,7 +10383,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10344,7 +10397,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -10358,7 +10411,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -10372,7 +10425,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -10386,7 +10439,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -10400,14 +10453,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -10430,55 +10483,55 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10486,48 +10539,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10559,7 +10612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10573,7 +10626,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10587,7 +10640,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10601,7 +10654,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10615,7 +10668,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -10629,7 +10682,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -10643,7 +10696,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -10657,7 +10710,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -10671,14 +10724,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -10701,55 +10754,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.58203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10757,48 +10810,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10830,7 +10883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10860,7 +10913,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24" customHeight="1">
+    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10890,7 +10943,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10920,7 +10973,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10950,7 +11003,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -10980,14 +11033,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.5">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="15"/>
@@ -11010,55 +11063,55 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11066,48 +11119,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -11139,7 +11192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -11153,7 +11206,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -11167,7 +11220,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -11181,7 +11234,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -11195,7 +11248,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -11209,7 +11262,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -11223,7 +11276,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -11237,7 +11290,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -11251,14 +11304,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -11281,55 +11334,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11337,48 +11390,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -11410,7 +11463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -11440,7 +11493,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -11470,7 +11523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -11500,7 +11553,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -11530,7 +11583,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -11560,7 +11613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -11590,7 +11643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -11620,7 +11673,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -11650,14 +11703,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -11680,55 +11733,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11736,48 +11789,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -11809,7 +11862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="10">
         <v>1</v>
@@ -11839,7 +11892,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -11869,7 +11922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -11899,7 +11952,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -11929,7 +11982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -11959,7 +12012,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -11989,7 +12042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -12019,14 +12072,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="17.5">
+    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>
@@ -12049,55 +12102,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7.4140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.58203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="49.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12105,48 +12158,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -12178,7 +12231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -12208,7 +12261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="10">
         <v>2</v>
@@ -12238,7 +12291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31">
+    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -12268,7 +12321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1">
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -12298,7 +12351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>6</v>
@@ -12328,7 +12381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="46.5">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>5</v>
@@ -12358,14 +12411,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="17.5">
+    <row r="17" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="19" spans="4:9">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="15"/>
@@ -12388,55 +12441,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12444,48 +12497,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -12517,7 +12570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -12547,14 +12600,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.5">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
@@ -12577,55 +12630,55 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12633,48 +12686,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -12706,7 +12759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -12736,7 +12789,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -12766,7 +12819,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -12796,7 +12849,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -12826,7 +12879,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -12856,7 +12909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -12886,7 +12939,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31">
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -12916,7 +12969,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -12946,7 +12999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="31">
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -12975,7 +13028,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>10</v>
       </c>
@@ -13004,14 +13057,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="17.5">
+    <row r="19" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -13034,55 +13087,55 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -13090,48 +13143,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -13163,7 +13216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1">
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -13193,7 +13246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -13223,7 +13276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -13253,7 +13306,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24.75" customHeight="1">
+    <row r="11" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -13283,7 +13336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="27">
         <v>5</v>
@@ -13313,7 +13366,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="10">
         <v>6</v>
@@ -13343,7 +13396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" customHeight="1">
+    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -13373,14 +13426,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="17.5">
+    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>

--- a/PROGRAMACIONES DE CIRUGIA DIARIA/4 ABRIL.xlsx
+++ b/PROGRAMACIONES DE CIRUGIA DIARIA/4 ABRIL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PROGRAMACIONES DE CIRUGIA DIARIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA13B19A-E48F-4795-9EEB-EEB497269720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="01 ABRIL" sheetId="1" r:id="rId1"/>
@@ -44,7 +43,7 @@
     <sheet name="29 ABRIL" sheetId="29" r:id="rId29"/>
     <sheet name="30 ABRIL" sheetId="30" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="375">
   <si>
     <t xml:space="preserve">REGISTRO DE PROGRAMACION  DE CIRUGIAS </t>
   </si>
@@ -1185,12 +1184,54 @@
   <si>
     <t xml:space="preserve">CLAVO MACIZO DE TIBIA + BASICO 4.5MM </t>
   </si>
+  <si>
+    <t>8:30PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. MARCOS BURBANO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAVO PFNA ACERO + CERCLAJE+ BASICO 4.5MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 DE ABRIL </t>
+  </si>
+  <si>
+    <t>CLAVO DE HUMERO ACERO + BASICO 4.5MM + PLACA TERCIO DE CAÑA  + PLACA DE TIBIA DISTAL ACERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA POSTEROLATERAL HUMERO + HUMERO DISTAL + PLACA LCDCP ANGOSTA DE 4.5MM ACERO </t>
+  </si>
+  <si>
+    <t>DR. ECHENIQUE</t>
+  </si>
+  <si>
+    <t>PLACA RADIO DISTAL ARIX (REACOMODACION DE TORNILLO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASA PARA EL LUNES 22 ABRIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 DE ABRIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 DE ABRIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAVOS TEENS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIX HUMERO + PLACA PHILOS TIT. </t>
+  </si>
+  <si>
+    <t>DR.BACHIR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1630,6 +1671,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1695,21 +1751,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3784,55 +3825,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.4140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.4140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3840,48 +3881,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -3913,7 +3954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -3943,7 +3984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="25.5" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -3973,7 +4014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="24" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -4003,7 +4044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -4033,7 +4074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -4063,14 +4104,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17.5">
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8">
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="15"/>
@@ -4093,55 +4134,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4149,48 +4190,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -4222,7 +4263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="21.75" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -4252,7 +4293,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="27.75" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -4282,7 +4323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="19.5" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -4312,7 +4353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="21.75" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -4342,7 +4383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="10">
         <v>5</v>
@@ -4372,7 +4413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="10">
         <v>6</v>
@@ -4402,7 +4443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="28.5" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -4432,7 +4473,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="21" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5">
         <v>8</v>
@@ -4462,14 +4503,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -4492,55 +4533,55 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4548,48 +4589,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -4621,7 +4662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="27" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -4654,7 +4695,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="26.5" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -4687,7 +4728,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="26.15" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -4720,7 +4761,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="31">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -4753,7 +4794,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="31">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -4786,7 +4827,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="31">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -4819,7 +4860,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -4850,7 +4891,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -4883,14 +4924,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -4913,55 +4954,55 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4969,48 +5010,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5042,7 +5083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="46.5">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -5075,7 +5116,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="37.5" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5108,7 +5149,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -5141,7 +5182,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -5174,7 +5215,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="31">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -5207,14 +5248,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17.5">
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8">
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="15"/>
@@ -5237,55 +5278,55 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5293,48 +5334,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5366,7 +5407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -5396,7 +5437,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5426,7 +5467,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="31">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -5456,7 +5497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="31">
       <c r="A11" s="5"/>
       <c r="B11" s="33">
         <v>4</v>
@@ -5486,7 +5527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -5500,7 +5541,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -5514,7 +5555,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -5528,7 +5569,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -5542,14 +5583,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -5572,55 +5613,55 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5628,48 +5669,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5701,7 +5742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -5731,7 +5772,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="28.5" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5761,7 +5802,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -5791,14 +5832,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="17.5">
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
       <c r="F16" s="15"/>
@@ -5821,55 +5862,55 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5877,48 +5918,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5950,7 +5991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="37.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -5983,7 +6024,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -6016,7 +6057,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="28.5" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -6049,7 +6090,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>3</v>
@@ -6082,7 +6123,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="31">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>4</v>
@@ -6115,7 +6156,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>5</v>
@@ -6148,7 +6189,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="31">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>6</v>
@@ -6178,7 +6219,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" s="5">
         <v>6</v>
       </c>
@@ -6210,14 +6251,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" ht="17.5">
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:9">
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>
@@ -6240,55 +6281,55 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="62.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="62.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6296,48 +6337,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -6369,7 +6410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -6402,7 +6443,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -6435,7 +6476,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="31">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -6468,7 +6509,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -6498,7 +6539,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="31">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -6531,7 +6572,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="31">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -6561,7 +6602,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -6575,7 +6616,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -6589,14 +6630,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -6619,55 +6660,55 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6675,48 +6716,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -6748,7 +6789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="31">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -6778,7 +6819,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -6808,7 +6849,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="37.5" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="10">
         <v>3</v>
@@ -6838,7 +6879,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="33.65" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -6868,7 +6909,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -6882,7 +6923,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -6896,7 +6937,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -6910,7 +6951,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -6924,14 +6965,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -6955,55 +6996,55 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7011,48 +7052,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -7084,7 +7125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="31">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -7114,7 +7155,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="22" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -7144,7 +7185,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="31" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -7174,7 +7215,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="21.65" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -7204,7 +7245,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="24" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="10">
         <v>6</v>
@@ -7234,7 +7275,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="23.5" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="10">
         <v>7</v>
@@ -7264,7 +7305,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="24" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>5</v>
@@ -7294,14 +7335,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" ht="17.5">
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:9">
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>
@@ -7324,55 +7365,55 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7380,48 +7421,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -7453,7 +7494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="10">
         <v>1</v>
@@ -7479,133 +7520,92 @@
       <c r="I8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
-      <c r="B9" s="62">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.5">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7623,55 +7623,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="B9" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.4140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7679,48 +7679,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="31">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -7782,7 +7782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="10">
         <v>3</v>
@@ -7840,7 +7840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="39" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -7870,7 +7870,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27.75" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -7900,7 +7900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="31">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -7930,7 +7930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>5</v>
@@ -7958,7 +7958,7 @@
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="24.75" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>6</v>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="5"/>
       <c r="B16" s="5">
         <v>7</v>
@@ -8000,7 +8000,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5"/>
       <c r="B17" s="10">
         <v>8</v>
@@ -8014,14 +8014,14 @@
       <c r="I17" s="14"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="17.5">
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
       <c r="F23" s="15"/>
@@ -8044,55 +8044,55 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8100,48 +8100,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8173,49 +8173,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="31">
       <c r="A8" s="5"/>
-      <c r="B8" s="5">
+      <c r="B8" s="40">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="31">
       <c r="A9" s="5"/>
-      <c r="B9" s="5">
+      <c r="B9" s="40">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8229,7 +8277,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -8243,7 +8291,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -8257,7 +8305,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -8271,7 +8319,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -8285,14 +8333,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -8315,55 +8363,55 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8371,48 +8419,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8444,21 +8492,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="26" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
+      <c r="C8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -8472,7 +8534,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -8486,7 +8548,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8500,7 +8562,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -8514,7 +8576,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -8528,7 +8590,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -8542,7 +8604,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -8556,14 +8618,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -8586,55 +8648,55 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8642,48 +8704,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8715,35 +8777,63 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="31">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="25" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="5">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
+      <c r="C9" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>244</v>
+      </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -8757,7 +8847,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8771,7 +8861,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -8785,7 +8875,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -8799,7 +8889,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -8813,7 +8903,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -8827,14 +8917,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -8857,55 +8947,55 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8913,48 +9003,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8986,7 +9076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9000,7 +9090,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9014,7 +9104,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9028,7 +9118,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9042,7 +9132,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9056,7 +9146,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9070,7 +9160,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9084,7 +9174,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9098,14 +9188,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9128,55 +9218,55 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9184,48 +9274,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9257,7 +9347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9271,7 +9361,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9285,7 +9375,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9299,7 +9389,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9313,7 +9403,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9327,7 +9417,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9341,7 +9431,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9355,7 +9445,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9369,14 +9459,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9399,55 +9489,55 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9455,48 +9545,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9528,7 +9618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9542,7 +9632,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9556,7 +9646,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9570,7 +9660,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9584,7 +9674,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9598,7 +9688,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9612,7 +9702,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9626,7 +9716,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9640,14 +9730,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9670,55 +9760,55 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9726,48 +9816,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9799,7 +9889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9813,7 +9903,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9827,7 +9917,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9841,7 +9931,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9855,7 +9945,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9869,7 +9959,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9883,7 +9973,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9897,7 +9987,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9911,14 +10001,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9941,55 +10031,55 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9997,48 +10087,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10070,7 +10160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10084,7 +10174,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10098,7 +10188,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10112,7 +10202,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10126,7 +10216,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -10140,7 +10230,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -10154,7 +10244,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -10168,7 +10258,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -10182,14 +10272,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -10212,55 +10302,55 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10268,48 +10358,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10341,7 +10431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10355,7 +10445,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10369,7 +10459,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10383,7 +10473,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10397,7 +10487,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -10411,7 +10501,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -10425,7 +10515,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -10439,7 +10529,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -10453,14 +10543,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -10483,55 +10573,55 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10539,48 +10629,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10612,7 +10702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10626,7 +10716,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10640,7 +10730,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10654,7 +10744,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10668,7 +10758,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -10682,7 +10772,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -10696,7 +10786,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -10710,7 +10800,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -10724,14 +10814,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -10754,55 +10844,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10810,48 +10900,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10883,7 +10973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10913,7 +11003,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10943,7 +11033,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10973,7 +11063,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -11003,7 +11093,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -11033,14 +11123,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17.5">
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8">
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="15"/>
@@ -11063,55 +11153,55 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11119,48 +11209,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -11192,7 +11282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -11206,7 +11296,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -11220,7 +11310,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -11234,7 +11324,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -11248,7 +11338,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -11262,7 +11352,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -11276,7 +11366,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -11290,7 +11380,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -11304,14 +11394,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -11334,55 +11424,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11390,48 +11480,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -11463,7 +11553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -11493,7 +11583,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -11523,7 +11613,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -11553,7 +11643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -11583,7 +11673,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="31">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -11613,7 +11703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -11643,7 +11733,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -11673,7 +11763,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -11703,14 +11793,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -11733,55 +11823,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11789,48 +11879,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -11862,7 +11952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="10">
         <v>1</v>
@@ -11892,7 +11982,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -11922,7 +12012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -11952,7 +12042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -11982,7 +12072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -12012,7 +12102,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -12042,7 +12132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -12072,14 +12162,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" ht="17.5">
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:9">
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>
@@ -12102,55 +12192,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.4140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="49.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="16.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.4140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12158,48 +12248,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -12231,7 +12321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -12261,7 +12351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31">
       <c r="A9" s="5"/>
       <c r="B9" s="10">
         <v>2</v>
@@ -12291,7 +12381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="31">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -12321,7 +12411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="22.5" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -12351,7 +12441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>6</v>
@@ -12381,7 +12471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="46.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>5</v>
@@ -12411,14 +12501,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" ht="17.5">
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:9">
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="15"/>
@@ -12441,55 +12531,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.4140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12497,48 +12587,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -12570,7 +12660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -12600,14 +12690,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17.5">
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
@@ -12630,55 +12720,55 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12686,48 +12776,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -12759,7 +12849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -12789,7 +12879,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -12819,7 +12909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -12849,7 +12939,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="31">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -12879,7 +12969,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="31">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -12909,7 +12999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -12939,7 +13029,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="31">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -12969,7 +13059,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -12999,7 +13089,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="31">
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -13028,7 +13118,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="5">
         <v>10</v>
       </c>
@@ -13057,14 +13147,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="17.5">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -13087,55 +13177,55 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="58" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+    <row r="3" spans="1:11" ht="16" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -13143,48 +13233,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52" t="s">
+    <row r="4" spans="1:11" ht="16" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="s">
+    <row r="5" spans="1:11" ht="16" thickBot="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="31">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -13216,7 +13306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="28.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -13246,7 +13336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -13276,7 +13366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="31">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -13306,7 +13396,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="24.75" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -13336,7 +13426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="31">
       <c r="A12" s="5"/>
       <c r="B12" s="27">
         <v>5</v>
@@ -13366,7 +13456,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="10">
         <v>6</v>
@@ -13396,7 +13486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -13426,14 +13516,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" ht="17.5">
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:9">
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>
